--- a/Data/m-sig_table_con.xlsx
+++ b/Data/m-sig_table_con.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\#ASTRO\Statistik\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ec9dbd0ff43d94c9/Studium/Winter24/Stastic/MiniProject/Project/M-Sigma-Relation/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_0369C40119165EC6F2871220F6851D694CBD47B6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7031ED5-E2C2-4870-9135-2ACED6CD17E5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24045" windowHeight="11310"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="m-sig_table_con" sheetId="1" r:id="rId1"/>
@@ -372,7 +373,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1172,16 +1173,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="18.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1225,7 +1229,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1263,7 +1267,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1307,7 +1311,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1342,7 +1346,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1386,7 +1390,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1424,7 +1428,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1468,7 +1472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1512,7 +1516,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1550,7 +1554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1588,7 +1592,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1632,7 +1636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -1676,7 +1680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1714,7 +1718,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -1758,7 +1762,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -1796,7 +1800,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -1834,7 +1838,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -1878,7 +1882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -1916,7 +1920,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -1954,7 +1958,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -1998,7 +2002,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -2042,7 +2046,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -2086,7 +2090,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -2130,7 +2134,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -2174,7 +2178,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -2218,7 +2222,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>67</v>
       </c>
@@ -2256,7 +2260,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>69</v>
       </c>
@@ -2300,7 +2304,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>70</v>
       </c>
@@ -2338,7 +2342,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>73</v>
       </c>
@@ -2382,7 +2386,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>75</v>
       </c>
@@ -2426,7 +2430,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>76</v>
       </c>
@@ -2464,7 +2468,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -2508,7 +2512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -2552,7 +2556,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>81</v>
       </c>
@@ -2596,7 +2600,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>82</v>
       </c>
@@ -2640,7 +2644,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>84</v>
       </c>
@@ -2684,7 +2688,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -2728,7 +2732,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>87</v>
       </c>
@@ -2772,7 +2776,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>90</v>
       </c>
@@ -2810,7 +2814,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>91</v>
       </c>
@@ -2854,7 +2858,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>92</v>
       </c>
@@ -2898,7 +2902,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>93</v>
       </c>
@@ -2942,7 +2946,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>96</v>
       </c>
@@ -2986,7 +2990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>96</v>
       </c>
@@ -3030,7 +3034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>100</v>
       </c>
@@ -3074,7 +3078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>101</v>
       </c>
@@ -3118,7 +3122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>102</v>
       </c>
@@ -3153,7 +3157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>104</v>
       </c>
@@ -3188,7 +3192,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>106</v>
       </c>
@@ -3232,7 +3236,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>107</v>
       </c>
@@ -3270,7 +3274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>110</v>
       </c>
@@ -3314,7 +3318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>113</v>
       </c>

--- a/Data/m-sig_table_con.xlsx
+++ b/Data/m-sig_table_con.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1177,7 +1177,7 @@
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
